--- a/public/Dataset/Dataset Siswa.xlsx
+++ b/public/Dataset/Dataset Siswa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\UNDIP\PKL\template excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imbecile\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FA467C1-D266-44C7-89ED-B3B4C1475534}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29250801-4C61-4557-940B-DC3E678261CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{FFCF664F-A068-4F0F-89DF-6A3ADE0F1548}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="362">
   <si>
     <t>Nama Lengkap</t>
   </si>
@@ -57,22 +57,1066 @@
     <t>No Surat</t>
   </si>
   <si>
-    <t>Muhammad Ahmad</t>
-  </si>
-  <si>
-    <t>Batang, 15 Agustus 2000</t>
-  </si>
-  <si>
-    <t>MIPA 1</t>
-  </si>
-  <si>
-    <t>31-139-009-826375</t>
-  </si>
-  <si>
     <t>Jayes</t>
   </si>
   <si>
-    <t>423.5 / 349 / 2021</t>
+    <t>Cathleen Jayes</t>
+  </si>
+  <si>
+    <t>29/10/2020</t>
+  </si>
+  <si>
+    <t>MIPA 4</t>
+  </si>
+  <si>
+    <t>114.199.89.163</t>
+  </si>
+  <si>
+    <t>64-697-2225</t>
+  </si>
+  <si>
+    <t>Nealy Fernao</t>
+  </si>
+  <si>
+    <t>24/12/2020</t>
+  </si>
+  <si>
+    <t>118.154.156.238</t>
+  </si>
+  <si>
+    <t>Fernao</t>
+  </si>
+  <si>
+    <t>81-692-0345</t>
+  </si>
+  <si>
+    <t>Hadleigh Shefton</t>
+  </si>
+  <si>
+    <t>12/10/2020</t>
+  </si>
+  <si>
+    <t>143.87.56.143</t>
+  </si>
+  <si>
+    <t>Shefton</t>
+  </si>
+  <si>
+    <t>30-089-4806</t>
+  </si>
+  <si>
+    <t>Tamara DeSousa</t>
+  </si>
+  <si>
+    <t>05/09/2020</t>
+  </si>
+  <si>
+    <t>144.105.103.49</t>
+  </si>
+  <si>
+    <t>DeSousa</t>
+  </si>
+  <si>
+    <t>00-207-5434</t>
+  </si>
+  <si>
+    <t>Sybila Hollow</t>
+  </si>
+  <si>
+    <t>31/10/2020</t>
+  </si>
+  <si>
+    <t>175.130.62.218</t>
+  </si>
+  <si>
+    <t>Hollow</t>
+  </si>
+  <si>
+    <t>00-156-9013</t>
+  </si>
+  <si>
+    <t>Aloin Lurcock</t>
+  </si>
+  <si>
+    <t>23/01/2021</t>
+  </si>
+  <si>
+    <t>23.162.98.164</t>
+  </si>
+  <si>
+    <t>Lurcock</t>
+  </si>
+  <si>
+    <t>38-037-1331</t>
+  </si>
+  <si>
+    <t>Randell Reichartz</t>
+  </si>
+  <si>
+    <t>10/04/2020</t>
+  </si>
+  <si>
+    <t>128.68.247.86</t>
+  </si>
+  <si>
+    <t>Reichartz</t>
+  </si>
+  <si>
+    <t>70-511-8382</t>
+  </si>
+  <si>
+    <t>Bert Jevon</t>
+  </si>
+  <si>
+    <t>27/07/2020</t>
+  </si>
+  <si>
+    <t>226.95.83.79</t>
+  </si>
+  <si>
+    <t>Jevon</t>
+  </si>
+  <si>
+    <t>36-043-4159</t>
+  </si>
+  <si>
+    <t>Taffy Ludl</t>
+  </si>
+  <si>
+    <t>02/01/2021</t>
+  </si>
+  <si>
+    <t>176.20.7.234</t>
+  </si>
+  <si>
+    <t>Ludl</t>
+  </si>
+  <si>
+    <t>97-195-0986</t>
+  </si>
+  <si>
+    <t>Steve Chorlton</t>
+  </si>
+  <si>
+    <t>11/11/2020</t>
+  </si>
+  <si>
+    <t>127.168.174.14</t>
+  </si>
+  <si>
+    <t>Chorlton</t>
+  </si>
+  <si>
+    <t>44-156-0737</t>
+  </si>
+  <si>
+    <t>Alexis Collocott</t>
+  </si>
+  <si>
+    <t>23/09/2020</t>
+  </si>
+  <si>
+    <t>26.100.251.14</t>
+  </si>
+  <si>
+    <t>Collocott</t>
+  </si>
+  <si>
+    <t>68-071-5191</t>
+  </si>
+  <si>
+    <t>Chas Trebble</t>
+  </si>
+  <si>
+    <t>13/01/2021</t>
+  </si>
+  <si>
+    <t>13.205.246.72</t>
+  </si>
+  <si>
+    <t>Trebble</t>
+  </si>
+  <si>
+    <t>60-824-9156</t>
+  </si>
+  <si>
+    <t>Ase Scapens</t>
+  </si>
+  <si>
+    <t>21/12/2020</t>
+  </si>
+  <si>
+    <t>44.160.85.61</t>
+  </si>
+  <si>
+    <t>Scapens</t>
+  </si>
+  <si>
+    <t>77-497-2398</t>
+  </si>
+  <si>
+    <t>Aggie Oake</t>
+  </si>
+  <si>
+    <t>20/01/2021</t>
+  </si>
+  <si>
+    <t>112.228.155.138</t>
+  </si>
+  <si>
+    <t>Oake</t>
+  </si>
+  <si>
+    <t>01-720-1891</t>
+  </si>
+  <si>
+    <t>Rani Moodie</t>
+  </si>
+  <si>
+    <t>13/11/2020</t>
+  </si>
+  <si>
+    <t>105.89.241.238</t>
+  </si>
+  <si>
+    <t>Moodie</t>
+  </si>
+  <si>
+    <t>84-238-4404</t>
+  </si>
+  <si>
+    <t>Sela Bosanko</t>
+  </si>
+  <si>
+    <t>128.164.84.84</t>
+  </si>
+  <si>
+    <t>Bosanko</t>
+  </si>
+  <si>
+    <t>48-796-8050</t>
+  </si>
+  <si>
+    <t>Collette Tupie</t>
+  </si>
+  <si>
+    <t>04/06/2020</t>
+  </si>
+  <si>
+    <t>106.136.53.68</t>
+  </si>
+  <si>
+    <t>Tupie</t>
+  </si>
+  <si>
+    <t>33-259-2955</t>
+  </si>
+  <si>
+    <t>Jacinta Tamburo</t>
+  </si>
+  <si>
+    <t>19/10/2020</t>
+  </si>
+  <si>
+    <t>234.228.250.182</t>
+  </si>
+  <si>
+    <t>Tamburo</t>
+  </si>
+  <si>
+    <t>82-167-1809</t>
+  </si>
+  <si>
+    <t>Eustacia Gapper</t>
+  </si>
+  <si>
+    <t>13/06/2020</t>
+  </si>
+  <si>
+    <t>9.37.200.207</t>
+  </si>
+  <si>
+    <t>Gapper</t>
+  </si>
+  <si>
+    <t>88-498-8559</t>
+  </si>
+  <si>
+    <t>Zane Mulvin</t>
+  </si>
+  <si>
+    <t>20/10/2020</t>
+  </si>
+  <si>
+    <t>196.70.226.54</t>
+  </si>
+  <si>
+    <t>Mulvin</t>
+  </si>
+  <si>
+    <t>63-431-0431</t>
+  </si>
+  <si>
+    <t>Adelle Snape</t>
+  </si>
+  <si>
+    <t>23/05/2020</t>
+  </si>
+  <si>
+    <t>132.65.221.130</t>
+  </si>
+  <si>
+    <t>Snape</t>
+  </si>
+  <si>
+    <t>36-228-7429</t>
+  </si>
+  <si>
+    <t>Dilan Crossley</t>
+  </si>
+  <si>
+    <t>10/03/2020</t>
+  </si>
+  <si>
+    <t>83.231.75.152</t>
+  </si>
+  <si>
+    <t>Crossley</t>
+  </si>
+  <si>
+    <t>42-145-0928</t>
+  </si>
+  <si>
+    <t>Shell Foy</t>
+  </si>
+  <si>
+    <t>14/07/2020</t>
+  </si>
+  <si>
+    <t>214.45.34.204</t>
+  </si>
+  <si>
+    <t>Foy</t>
+  </si>
+  <si>
+    <t>98-020-0845</t>
+  </si>
+  <si>
+    <t>Kendal Itzkov</t>
+  </si>
+  <si>
+    <t>05/11/2020</t>
+  </si>
+  <si>
+    <t>85.91.122.26</t>
+  </si>
+  <si>
+    <t>Itzkov</t>
+  </si>
+  <si>
+    <t>26-299-4357</t>
+  </si>
+  <si>
+    <t>Cully Trinkwon</t>
+  </si>
+  <si>
+    <t>24/05/2020</t>
+  </si>
+  <si>
+    <t>19.106.254.128</t>
+  </si>
+  <si>
+    <t>Trinkwon</t>
+  </si>
+  <si>
+    <t>09-668-6281</t>
+  </si>
+  <si>
+    <t>Nollie Yegorovnin</t>
+  </si>
+  <si>
+    <t>08/06/2020</t>
+  </si>
+  <si>
+    <t>219.25.84.142</t>
+  </si>
+  <si>
+    <t>Yegorovnin</t>
+  </si>
+  <si>
+    <t>97-100-4217</t>
+  </si>
+  <si>
+    <t>Merry Cresswell</t>
+  </si>
+  <si>
+    <t>13/05/2020</t>
+  </si>
+  <si>
+    <t>79.159.108.66</t>
+  </si>
+  <si>
+    <t>Cresswell</t>
+  </si>
+  <si>
+    <t>68-123-1428</t>
+  </si>
+  <si>
+    <t>Cherrita Bulfoot</t>
+  </si>
+  <si>
+    <t>29/08/2020</t>
+  </si>
+  <si>
+    <t>21.53.38.23</t>
+  </si>
+  <si>
+    <t>Bulfoot</t>
+  </si>
+  <si>
+    <t>02-294-2274</t>
+  </si>
+  <si>
+    <t>Hally Cush</t>
+  </si>
+  <si>
+    <t>15/06/2020</t>
+  </si>
+  <si>
+    <t>66.234.193.83</t>
+  </si>
+  <si>
+    <t>Cush</t>
+  </si>
+  <si>
+    <t>33-838-0897</t>
+  </si>
+  <si>
+    <t>Darb Leal</t>
+  </si>
+  <si>
+    <t>02/09/2020</t>
+  </si>
+  <si>
+    <t>177.47.6.233</t>
+  </si>
+  <si>
+    <t>Leal</t>
+  </si>
+  <si>
+    <t>18-758-8136</t>
+  </si>
+  <si>
+    <t>Lorna Barthropp</t>
+  </si>
+  <si>
+    <t>04/05/2020</t>
+  </si>
+  <si>
+    <t>80.28.143.174</t>
+  </si>
+  <si>
+    <t>Barthropp</t>
+  </si>
+  <si>
+    <t>05-244-8384</t>
+  </si>
+  <si>
+    <t>Justinian Ivons</t>
+  </si>
+  <si>
+    <t>14/04/2020</t>
+  </si>
+  <si>
+    <t>73.98.109.110</t>
+  </si>
+  <si>
+    <t>Ivons</t>
+  </si>
+  <si>
+    <t>73-665-4061</t>
+  </si>
+  <si>
+    <t>Arlinda Neicho</t>
+  </si>
+  <si>
+    <t>13/10/2020</t>
+  </si>
+  <si>
+    <t>186.51.64.37</t>
+  </si>
+  <si>
+    <t>Neicho</t>
+  </si>
+  <si>
+    <t>60-356-2138</t>
+  </si>
+  <si>
+    <t>Wilona Hacket</t>
+  </si>
+  <si>
+    <t>01/07/2020</t>
+  </si>
+  <si>
+    <t>26.231.95.246</t>
+  </si>
+  <si>
+    <t>Hacket</t>
+  </si>
+  <si>
+    <t>94-436-0613</t>
+  </si>
+  <si>
+    <t>Chuck Arpin</t>
+  </si>
+  <si>
+    <t>18/05/2020</t>
+  </si>
+  <si>
+    <t>126.227.12.208</t>
+  </si>
+  <si>
+    <t>Arpin</t>
+  </si>
+  <si>
+    <t>95-968-4415</t>
+  </si>
+  <si>
+    <t>Dana Bellin</t>
+  </si>
+  <si>
+    <t>02/02/2021</t>
+  </si>
+  <si>
+    <t>43.201.51.168</t>
+  </si>
+  <si>
+    <t>Bellin</t>
+  </si>
+  <si>
+    <t>41-536-0943</t>
+  </si>
+  <si>
+    <t>Lita Cornish</t>
+  </si>
+  <si>
+    <t>14/09/2020</t>
+  </si>
+  <si>
+    <t>IPS 1</t>
+  </si>
+  <si>
+    <t>27.85.120.73</t>
+  </si>
+  <si>
+    <t>Cornish</t>
+  </si>
+  <si>
+    <t>95-481-3609</t>
+  </si>
+  <si>
+    <t>Kay Klemensiewicz</t>
+  </si>
+  <si>
+    <t>86.195.189.176</t>
+  </si>
+  <si>
+    <t>Klemensiewicz</t>
+  </si>
+  <si>
+    <t>50-386-5020</t>
+  </si>
+  <si>
+    <t>Susann Garford</t>
+  </si>
+  <si>
+    <t>08/05/2020</t>
+  </si>
+  <si>
+    <t>46.159.254.200</t>
+  </si>
+  <si>
+    <t>Garford</t>
+  </si>
+  <si>
+    <t>77-035-4530</t>
+  </si>
+  <si>
+    <t>Hildy Brotherton</t>
+  </si>
+  <si>
+    <t>11/04/2020</t>
+  </si>
+  <si>
+    <t>34.67.206.136</t>
+  </si>
+  <si>
+    <t>Brotherton</t>
+  </si>
+  <si>
+    <t>85-625-6741</t>
+  </si>
+  <si>
+    <t>Mace Twyford</t>
+  </si>
+  <si>
+    <t>17/04/2020</t>
+  </si>
+  <si>
+    <t>253.147.180.23</t>
+  </si>
+  <si>
+    <t>Twyford</t>
+  </si>
+  <si>
+    <t>29-266-0807</t>
+  </si>
+  <si>
+    <t>Hyman Potkins</t>
+  </si>
+  <si>
+    <t>09/04/2020</t>
+  </si>
+  <si>
+    <t>27.232.224.104</t>
+  </si>
+  <si>
+    <t>Potkins</t>
+  </si>
+  <si>
+    <t>33-994-8741</t>
+  </si>
+  <si>
+    <t>Willi Litherborough</t>
+  </si>
+  <si>
+    <t>06/12/2020</t>
+  </si>
+  <si>
+    <t>7.126.234.227</t>
+  </si>
+  <si>
+    <t>Litherborough</t>
+  </si>
+  <si>
+    <t>61-632-2278</t>
+  </si>
+  <si>
+    <t>Gradey Pitts</t>
+  </si>
+  <si>
+    <t>26/04/2020</t>
+  </si>
+  <si>
+    <t>148.27.137.148</t>
+  </si>
+  <si>
+    <t>Pitts</t>
+  </si>
+  <si>
+    <t>26-126-1148</t>
+  </si>
+  <si>
+    <t>Margy Scartifield</t>
+  </si>
+  <si>
+    <t>12/05/2020</t>
+  </si>
+  <si>
+    <t>32.159.53.29</t>
+  </si>
+  <si>
+    <t>Scartifield</t>
+  </si>
+  <si>
+    <t>25-855-0903</t>
+  </si>
+  <si>
+    <t>Isabella Willcock</t>
+  </si>
+  <si>
+    <t>29/03/2020</t>
+  </si>
+  <si>
+    <t>111.130.235.209</t>
+  </si>
+  <si>
+    <t>Willcock</t>
+  </si>
+  <si>
+    <t>59-833-8548</t>
+  </si>
+  <si>
+    <t>Stoddard Bello</t>
+  </si>
+  <si>
+    <t>16/06/2020</t>
+  </si>
+  <si>
+    <t>220.208.114.84</t>
+  </si>
+  <si>
+    <t>Bello</t>
+  </si>
+  <si>
+    <t>90-137-8645</t>
+  </si>
+  <si>
+    <t>Lois McCray</t>
+  </si>
+  <si>
+    <t>01/03/2020</t>
+  </si>
+  <si>
+    <t>227.112.111.245</t>
+  </si>
+  <si>
+    <t>McCray</t>
+  </si>
+  <si>
+    <t>83-486-5413</t>
+  </si>
+  <si>
+    <t>Gill Guitte</t>
+  </si>
+  <si>
+    <t>17/07/2020</t>
+  </si>
+  <si>
+    <t>6.18.120.251</t>
+  </si>
+  <si>
+    <t>Guitte</t>
+  </si>
+  <si>
+    <t>47-505-1565</t>
+  </si>
+  <si>
+    <t>Mignonne Duffree</t>
+  </si>
+  <si>
+    <t>208.56.57.230</t>
+  </si>
+  <si>
+    <t>Duffree</t>
+  </si>
+  <si>
+    <t>46-317-1601</t>
+  </si>
+  <si>
+    <t>Port Stobbe</t>
+  </si>
+  <si>
+    <t>176.168.208.153</t>
+  </si>
+  <si>
+    <t>Stobbe</t>
+  </si>
+  <si>
+    <t>79-012-0899</t>
+  </si>
+  <si>
+    <t>Kayle Jost</t>
+  </si>
+  <si>
+    <t>86.39.235.212</t>
+  </si>
+  <si>
+    <t>Jost</t>
+  </si>
+  <si>
+    <t>59-853-0609</t>
+  </si>
+  <si>
+    <t>Sunny Spellsworth</t>
+  </si>
+  <si>
+    <t>07/12/2020</t>
+  </si>
+  <si>
+    <t>6.70.250.185</t>
+  </si>
+  <si>
+    <t>Spellsworth</t>
+  </si>
+  <si>
+    <t>05-453-5118</t>
+  </si>
+  <si>
+    <t>Roxanne Dewi</t>
+  </si>
+  <si>
+    <t>23/08/2020</t>
+  </si>
+  <si>
+    <t>232.91.143.133</t>
+  </si>
+  <si>
+    <t>Dewi</t>
+  </si>
+  <si>
+    <t>05-639-8432</t>
+  </si>
+  <si>
+    <t>Demetris Blewitt</t>
+  </si>
+  <si>
+    <t>08/12/2020</t>
+  </si>
+  <si>
+    <t>75.65.225.172</t>
+  </si>
+  <si>
+    <t>Blewitt</t>
+  </si>
+  <si>
+    <t>51-926-4779</t>
+  </si>
+  <si>
+    <t>Carmon Mercer</t>
+  </si>
+  <si>
+    <t>28/06/2020</t>
+  </si>
+  <si>
+    <t>162.194.194.138</t>
+  </si>
+  <si>
+    <t>Mercer</t>
+  </si>
+  <si>
+    <t>42-659-0749</t>
+  </si>
+  <si>
+    <t>Charmine Troutbeck</t>
+  </si>
+  <si>
+    <t>28/10/2020</t>
+  </si>
+  <si>
+    <t>111.65.141.83</t>
+  </si>
+  <si>
+    <t>Troutbeck</t>
+  </si>
+  <si>
+    <t>71-684-9557</t>
+  </si>
+  <si>
+    <t>Alis Macia</t>
+  </si>
+  <si>
+    <t>22/10/2020</t>
+  </si>
+  <si>
+    <t>72.192.122.116</t>
+  </si>
+  <si>
+    <t>Macia</t>
+  </si>
+  <si>
+    <t>12-571-8897</t>
+  </si>
+  <si>
+    <t>Nanette Stair</t>
+  </si>
+  <si>
+    <t>179.52.236.133</t>
+  </si>
+  <si>
+    <t>Stair</t>
+  </si>
+  <si>
+    <t>06-211-6761</t>
+  </si>
+  <si>
+    <t>Brenna Rolfo</t>
+  </si>
+  <si>
+    <t>21/08/2020</t>
+  </si>
+  <si>
+    <t>144.186.8.59</t>
+  </si>
+  <si>
+    <t>Rolfo</t>
+  </si>
+  <si>
+    <t>04-670-6341</t>
+  </si>
+  <si>
+    <t>Auguste Bienvenu</t>
+  </si>
+  <si>
+    <t>31/03/2020</t>
+  </si>
+  <si>
+    <t>254.104.133.134</t>
+  </si>
+  <si>
+    <t>Bienvenu</t>
+  </si>
+  <si>
+    <t>76-385-5998</t>
+  </si>
+  <si>
+    <t>Korie Woodus</t>
+  </si>
+  <si>
+    <t>10/07/2020</t>
+  </si>
+  <si>
+    <t>231.99.81.215</t>
+  </si>
+  <si>
+    <t>Woodus</t>
+  </si>
+  <si>
+    <t>40-487-4812</t>
+  </si>
+  <si>
+    <t>Pauletta Blencowe</t>
+  </si>
+  <si>
+    <t>06/08/2020</t>
+  </si>
+  <si>
+    <t>18.60.142.84</t>
+  </si>
+  <si>
+    <t>Blencowe</t>
+  </si>
+  <si>
+    <t>79-991-6632</t>
+  </si>
+  <si>
+    <t>Hal Cholwell</t>
+  </si>
+  <si>
+    <t>28/04/2020</t>
+  </si>
+  <si>
+    <t>7.74.174.169</t>
+  </si>
+  <si>
+    <t>Cholwell</t>
+  </si>
+  <si>
+    <t>60-591-4462</t>
+  </si>
+  <si>
+    <t>Elroy Franzolini</t>
+  </si>
+  <si>
+    <t>17.36.178.14</t>
+  </si>
+  <si>
+    <t>Franzolini</t>
+  </si>
+  <si>
+    <t>64-422-5422</t>
+  </si>
+  <si>
+    <t>Saundra Luff</t>
+  </si>
+  <si>
+    <t>04/03/2020</t>
+  </si>
+  <si>
+    <t>193.32.89.199</t>
+  </si>
+  <si>
+    <t>Luff</t>
+  </si>
+  <si>
+    <t>93-033-8983</t>
+  </si>
+  <si>
+    <t>Yorke Brecher</t>
+  </si>
+  <si>
+    <t>08/02/2021</t>
+  </si>
+  <si>
+    <t>182.98.36.142</t>
+  </si>
+  <si>
+    <t>Brecher</t>
+  </si>
+  <si>
+    <t>68-644-5233</t>
+  </si>
+  <si>
+    <t>Roderick Welton</t>
+  </si>
+  <si>
+    <t>21/11/2020</t>
+  </si>
+  <si>
+    <t>31.98.78.56</t>
+  </si>
+  <si>
+    <t>Welton</t>
+  </si>
+  <si>
+    <t>71-133-9716</t>
+  </si>
+  <si>
+    <t>Warren Ornils</t>
+  </si>
+  <si>
+    <t>08/10/2020</t>
+  </si>
+  <si>
+    <t>87.18.149.250</t>
+  </si>
+  <si>
+    <t>Ornils</t>
+  </si>
+  <si>
+    <t>94-652-9593</t>
+  </si>
+  <si>
+    <t>Noel Mabbe</t>
+  </si>
+  <si>
+    <t>28/12/2020</t>
+  </si>
+  <si>
+    <t>11.50.239.128</t>
+  </si>
+  <si>
+    <t>Mabbe</t>
+  </si>
+  <si>
+    <t>48-034-9905</t>
+  </si>
+  <si>
+    <t>Aile Sheppard</t>
+  </si>
+  <si>
+    <t>31.53.84.181</t>
+  </si>
+  <si>
+    <t>Sheppard</t>
+  </si>
+  <si>
+    <t>76-999-7265</t>
+  </si>
+  <si>
+    <t>Curry Gunter</t>
+  </si>
+  <si>
+    <t>12/12/2020</t>
+  </si>
+  <si>
+    <t>59.27.35.184</t>
+  </si>
+  <si>
+    <t>Gunter</t>
+  </si>
+  <si>
+    <t>20-412-0529</t>
   </si>
 </sst>
 </file>
@@ -121,12 +1165,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,10 +1484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331F74CD-F624-4F21-B039-F07878B322BD}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A2" sqref="A2:H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,29 +1529,1875 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1001</v>
+      </c>
+      <c r="D2">
+        <v>6801285580</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1001</v>
-      </c>
-      <c r="D2" s="2">
-        <v>6801285580</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>1002</v>
+      </c>
+      <c r="D3">
+        <v>4235176463</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>1003</v>
+      </c>
+      <c r="D4">
+        <v>5199658433</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>1004</v>
+      </c>
+      <c r="D5">
+        <v>5522416793</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>1005</v>
+      </c>
+      <c r="D6">
+        <v>1534441948</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>1006</v>
+      </c>
+      <c r="D7">
+        <v>8543590868</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>1007</v>
+      </c>
+      <c r="D8">
+        <v>8584006044</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>1008</v>
+      </c>
+      <c r="D9">
+        <v>5426058717</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>1009</v>
+      </c>
+      <c r="D10">
+        <v>4676445083</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11">
+        <v>1010</v>
+      </c>
+      <c r="D11">
+        <v>7145743000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12">
+        <v>1011</v>
+      </c>
+      <c r="D12">
+        <v>5720147322</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13">
+        <v>1012</v>
+      </c>
+      <c r="D13">
+        <v>900868279</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14">
+        <v>1013</v>
+      </c>
+      <c r="D14">
+        <v>189726644</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15">
+        <v>1014</v>
+      </c>
+      <c r="D15">
+        <v>3266483510</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16">
+        <v>1015</v>
+      </c>
+      <c r="D16">
+        <v>8536967021</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17">
+        <v>1016</v>
+      </c>
+      <c r="D17">
+        <v>1660497698</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18">
+        <v>1017</v>
+      </c>
+      <c r="D18">
+        <v>7394452433</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19">
+        <v>1018</v>
+      </c>
+      <c r="D19">
+        <v>8400508424</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20">
+        <v>1019</v>
+      </c>
+      <c r="D20">
+        <v>5315472922</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21">
+        <v>1020</v>
+      </c>
+      <c r="D21">
+        <v>2126980529</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22">
+        <v>1021</v>
+      </c>
+      <c r="D22">
+        <v>798340657</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" t="s">
+        <v>111</v>
+      </c>
+      <c r="H22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23">
+        <v>1022</v>
+      </c>
+      <c r="D23">
+        <v>5519177996</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24">
+        <v>1023</v>
+      </c>
+      <c r="D24">
+        <v>595324142</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25">
+        <v>1024</v>
+      </c>
+      <c r="D25">
+        <v>93998627</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26">
+        <v>1025</v>
+      </c>
+      <c r="D26">
+        <v>1473716888</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" t="s">
+        <v>131</v>
+      </c>
+      <c r="H26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27">
+        <v>1026</v>
+      </c>
+      <c r="D27">
+        <v>5863463392</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>135</v>
+      </c>
+      <c r="G27" t="s">
+        <v>136</v>
+      </c>
+      <c r="H27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28">
+        <v>1027</v>
+      </c>
+      <c r="D28">
+        <v>289170087</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29">
+        <v>1028</v>
+      </c>
+      <c r="D29">
+        <v>5549027216</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30">
+        <v>1029</v>
+      </c>
+      <c r="D30">
+        <v>9765385226</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" t="s">
+        <v>151</v>
+      </c>
+      <c r="H30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31">
+        <v>1030</v>
+      </c>
+      <c r="D31">
+        <v>4745139497</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>155</v>
+      </c>
+      <c r="G31" t="s">
+        <v>156</v>
+      </c>
+      <c r="H31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32">
+        <v>1031</v>
+      </c>
+      <c r="D32">
+        <v>9005687274</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>160</v>
+      </c>
+      <c r="G32" t="s">
+        <v>161</v>
+      </c>
+      <c r="H32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33">
+        <v>1032</v>
+      </c>
+      <c r="D33">
+        <v>4484071428</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>165</v>
+      </c>
+      <c r="G33" t="s">
+        <v>166</v>
+      </c>
+      <c r="H33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34">
+        <v>1033</v>
+      </c>
+      <c r="D34">
+        <v>9096321855</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>170</v>
+      </c>
+      <c r="G34" t="s">
+        <v>171</v>
+      </c>
+      <c r="H34" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>173</v>
+      </c>
+      <c r="B35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35">
+        <v>1034</v>
+      </c>
+      <c r="D35">
+        <v>5355567738</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>175</v>
+      </c>
+      <c r="G35" t="s">
+        <v>176</v>
+      </c>
+      <c r="H35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36" t="s">
+        <v>179</v>
+      </c>
+      <c r="C36">
+        <v>1035</v>
+      </c>
+      <c r="D36">
+        <v>5450544847</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" t="s">
+        <v>181</v>
+      </c>
+      <c r="H36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37">
+        <v>1036</v>
+      </c>
+      <c r="D37">
+        <v>4886024637</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>185</v>
+      </c>
+      <c r="G37" t="s">
+        <v>186</v>
+      </c>
+      <c r="H37" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>188</v>
+      </c>
+      <c r="B38" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38">
+        <v>2001</v>
+      </c>
+      <c r="D38">
+        <v>590245848</v>
+      </c>
+      <c r="E38" t="s">
+        <v>190</v>
+      </c>
+      <c r="F38" t="s">
+        <v>191</v>
+      </c>
+      <c r="G38" t="s">
+        <v>192</v>
+      </c>
+      <c r="H38" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <v>2002</v>
+      </c>
+      <c r="D39">
+        <v>8509475865</v>
+      </c>
+      <c r="E39" t="s">
+        <v>190</v>
+      </c>
+      <c r="F39" t="s">
+        <v>195</v>
+      </c>
+      <c r="G39" t="s">
+        <v>196</v>
+      </c>
+      <c r="H39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>198</v>
+      </c>
+      <c r="B40" t="s">
+        <v>199</v>
+      </c>
+      <c r="C40">
+        <v>2003</v>
+      </c>
+      <c r="D40">
+        <v>1116068273</v>
+      </c>
+      <c r="E40" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40" t="s">
+        <v>200</v>
+      </c>
+      <c r="G40" t="s">
+        <v>201</v>
+      </c>
+      <c r="H40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41">
+        <v>2004</v>
+      </c>
+      <c r="D41">
+        <v>4042171729</v>
+      </c>
+      <c r="E41" t="s">
+        <v>190</v>
+      </c>
+      <c r="F41" t="s">
+        <v>205</v>
+      </c>
+      <c r="G41" t="s">
+        <v>206</v>
+      </c>
+      <c r="H41" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42" t="s">
+        <v>209</v>
+      </c>
+      <c r="C42">
+        <v>2005</v>
+      </c>
+      <c r="D42">
+        <v>1049547853</v>
+      </c>
+      <c r="E42" t="s">
+        <v>190</v>
+      </c>
+      <c r="F42" t="s">
+        <v>210</v>
+      </c>
+      <c r="G42" t="s">
+        <v>211</v>
+      </c>
+      <c r="H42" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43">
+        <v>2006</v>
+      </c>
+      <c r="D43">
+        <v>2459219555</v>
+      </c>
+      <c r="E43" t="s">
+        <v>190</v>
+      </c>
+      <c r="F43" t="s">
+        <v>215</v>
+      </c>
+      <c r="G43" t="s">
+        <v>216</v>
+      </c>
+      <c r="H43" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>218</v>
+      </c>
+      <c r="B44" t="s">
+        <v>219</v>
+      </c>
+      <c r="C44">
+        <v>2007</v>
+      </c>
+      <c r="D44">
+        <v>4366073595</v>
+      </c>
+      <c r="E44" t="s">
+        <v>190</v>
+      </c>
+      <c r="F44" t="s">
+        <v>220</v>
+      </c>
+      <c r="G44" t="s">
+        <v>221</v>
+      </c>
+      <c r="H44" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>223</v>
+      </c>
+      <c r="B45" t="s">
+        <v>224</v>
+      </c>
+      <c r="C45">
+        <v>2008</v>
+      </c>
+      <c r="D45">
+        <v>9589030130</v>
+      </c>
+      <c r="E45" t="s">
+        <v>190</v>
+      </c>
+      <c r="F45" t="s">
+        <v>225</v>
+      </c>
+      <c r="G45" t="s">
+        <v>226</v>
+      </c>
+      <c r="H45" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46" t="s">
+        <v>229</v>
+      </c>
+      <c r="C46">
+        <v>2009</v>
+      </c>
+      <c r="D46">
+        <v>5522404906</v>
+      </c>
+      <c r="E46" t="s">
+        <v>190</v>
+      </c>
+      <c r="F46" t="s">
+        <v>230</v>
+      </c>
+      <c r="G46" t="s">
+        <v>231</v>
+      </c>
+      <c r="H46" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>233</v>
+      </c>
+      <c r="B47" t="s">
+        <v>234</v>
+      </c>
+      <c r="C47">
+        <v>2010</v>
+      </c>
+      <c r="D47">
+        <v>3420772599</v>
+      </c>
+      <c r="E47" t="s">
+        <v>190</v>
+      </c>
+      <c r="F47" t="s">
+        <v>235</v>
+      </c>
+      <c r="G47" t="s">
+        <v>236</v>
+      </c>
+      <c r="H47" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>238</v>
+      </c>
+      <c r="B48" t="s">
+        <v>239</v>
+      </c>
+      <c r="C48">
+        <v>2011</v>
+      </c>
+      <c r="D48">
+        <v>5959607808</v>
+      </c>
+      <c r="E48" t="s">
+        <v>190</v>
+      </c>
+      <c r="F48" t="s">
+        <v>240</v>
+      </c>
+      <c r="G48" t="s">
+        <v>241</v>
+      </c>
+      <c r="H48" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>243</v>
+      </c>
+      <c r="B49" t="s">
+        <v>244</v>
+      </c>
+      <c r="C49">
+        <v>2012</v>
+      </c>
+      <c r="D49">
+        <v>9211385814</v>
+      </c>
+      <c r="E49" t="s">
+        <v>190</v>
+      </c>
+      <c r="F49" t="s">
+        <v>245</v>
+      </c>
+      <c r="G49" t="s">
+        <v>246</v>
+      </c>
+      <c r="H49" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>248</v>
+      </c>
+      <c r="B50" t="s">
+        <v>249</v>
+      </c>
+      <c r="C50">
+        <v>2013</v>
+      </c>
+      <c r="D50">
+        <v>8289227302</v>
+      </c>
+      <c r="E50" t="s">
+        <v>190</v>
+      </c>
+      <c r="F50" t="s">
+        <v>250</v>
+      </c>
+      <c r="G50" t="s">
+        <v>251</v>
+      </c>
+      <c r="H50" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>253</v>
+      </c>
+      <c r="B51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51">
+        <v>2014</v>
+      </c>
+      <c r="D51">
+        <v>2398641570</v>
+      </c>
+      <c r="E51" t="s">
+        <v>190</v>
+      </c>
+      <c r="F51" t="s">
+        <v>254</v>
+      </c>
+      <c r="G51" t="s">
+        <v>255</v>
+      </c>
+      <c r="H51" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>257</v>
+      </c>
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52">
+        <v>2015</v>
+      </c>
+      <c r="D52">
+        <v>8608911914</v>
+      </c>
+      <c r="E52" t="s">
+        <v>190</v>
+      </c>
+      <c r="F52" t="s">
+        <v>258</v>
+      </c>
+      <c r="G52" t="s">
+        <v>259</v>
+      </c>
+      <c r="H52" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>261</v>
+      </c>
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53">
+        <v>2016</v>
+      </c>
+      <c r="D53">
+        <v>2651715107</v>
+      </c>
+      <c r="E53" t="s">
+        <v>190</v>
+      </c>
+      <c r="F53" t="s">
+        <v>262</v>
+      </c>
+      <c r="G53" t="s">
+        <v>263</v>
+      </c>
+      <c r="H53" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>265</v>
+      </c>
+      <c r="B54" t="s">
+        <v>266</v>
+      </c>
+      <c r="C54">
+        <v>2017</v>
+      </c>
+      <c r="D54">
+        <v>5408940233</v>
+      </c>
+      <c r="E54" t="s">
+        <v>190</v>
+      </c>
+      <c r="F54" t="s">
+        <v>267</v>
+      </c>
+      <c r="G54" t="s">
+        <v>268</v>
+      </c>
+      <c r="H54" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>270</v>
+      </c>
+      <c r="B55" t="s">
+        <v>271</v>
+      </c>
+      <c r="C55">
+        <v>2018</v>
+      </c>
+      <c r="D55">
+        <v>673694631</v>
+      </c>
+      <c r="E55" t="s">
+        <v>190</v>
+      </c>
+      <c r="F55" t="s">
+        <v>272</v>
+      </c>
+      <c r="G55" t="s">
+        <v>273</v>
+      </c>
+      <c r="H55" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>275</v>
+      </c>
+      <c r="B56" t="s">
+        <v>276</v>
+      </c>
+      <c r="C56">
+        <v>2019</v>
+      </c>
+      <c r="D56">
+        <v>3315753407</v>
+      </c>
+      <c r="E56" t="s">
+        <v>190</v>
+      </c>
+      <c r="F56" t="s">
+        <v>277</v>
+      </c>
+      <c r="G56" t="s">
+        <v>278</v>
+      </c>
+      <c r="H56" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>280</v>
+      </c>
+      <c r="B57" t="s">
+        <v>281</v>
+      </c>
+      <c r="C57">
+        <v>2020</v>
+      </c>
+      <c r="D57">
+        <v>6813534106</v>
+      </c>
+      <c r="E57" t="s">
+        <v>190</v>
+      </c>
+      <c r="F57" t="s">
+        <v>282</v>
+      </c>
+      <c r="G57" t="s">
+        <v>283</v>
+      </c>
+      <c r="H57" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>285</v>
+      </c>
+      <c r="B58" t="s">
+        <v>286</v>
+      </c>
+      <c r="C58">
+        <v>2021</v>
+      </c>
+      <c r="D58">
+        <v>4477771207</v>
+      </c>
+      <c r="E58" t="s">
+        <v>190</v>
+      </c>
+      <c r="F58" t="s">
+        <v>287</v>
+      </c>
+      <c r="G58" t="s">
+        <v>288</v>
+      </c>
+      <c r="H58" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>290</v>
+      </c>
+      <c r="B59" t="s">
+        <v>291</v>
+      </c>
+      <c r="C59">
+        <v>2022</v>
+      </c>
+      <c r="D59">
+        <v>5795669148</v>
+      </c>
+      <c r="E59" t="s">
+        <v>190</v>
+      </c>
+      <c r="F59" t="s">
+        <v>292</v>
+      </c>
+      <c r="G59" t="s">
+        <v>293</v>
+      </c>
+      <c r="H59" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>295</v>
+      </c>
+      <c r="B60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60">
+        <v>2023</v>
+      </c>
+      <c r="D60">
+        <v>3506501607</v>
+      </c>
+      <c r="E60" t="s">
+        <v>190</v>
+      </c>
+      <c r="F60" t="s">
+        <v>296</v>
+      </c>
+      <c r="G60" t="s">
+        <v>297</v>
+      </c>
+      <c r="H60" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>299</v>
+      </c>
+      <c r="B61" t="s">
+        <v>300</v>
+      </c>
+      <c r="C61">
+        <v>2024</v>
+      </c>
+      <c r="D61">
+        <v>2105729606</v>
+      </c>
+      <c r="E61" t="s">
+        <v>190</v>
+      </c>
+      <c r="F61" t="s">
+        <v>301</v>
+      </c>
+      <c r="G61" t="s">
+        <v>302</v>
+      </c>
+      <c r="H61" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>304</v>
+      </c>
+      <c r="B62" t="s">
+        <v>305</v>
+      </c>
+      <c r="C62">
+        <v>2025</v>
+      </c>
+      <c r="D62">
+        <v>5689982318</v>
+      </c>
+      <c r="E62" t="s">
+        <v>190</v>
+      </c>
+      <c r="F62" t="s">
+        <v>306</v>
+      </c>
+      <c r="G62" t="s">
+        <v>307</v>
+      </c>
+      <c r="H62" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>309</v>
+      </c>
+      <c r="B63" t="s">
+        <v>310</v>
+      </c>
+      <c r="C63">
+        <v>2026</v>
+      </c>
+      <c r="D63">
+        <v>1032410590</v>
+      </c>
+      <c r="E63" t="s">
+        <v>190</v>
+      </c>
+      <c r="F63" t="s">
+        <v>311</v>
+      </c>
+      <c r="G63" t="s">
+        <v>312</v>
+      </c>
+      <c r="H63" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>314</v>
+      </c>
+      <c r="B64" t="s">
+        <v>315</v>
+      </c>
+      <c r="C64">
+        <v>2027</v>
+      </c>
+      <c r="D64">
+        <v>6611569944</v>
+      </c>
+      <c r="E64" t="s">
+        <v>190</v>
+      </c>
+      <c r="F64" t="s">
+        <v>316</v>
+      </c>
+      <c r="G64" t="s">
+        <v>317</v>
+      </c>
+      <c r="H64" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>319</v>
+      </c>
+      <c r="B65" t="s">
+        <v>320</v>
+      </c>
+      <c r="C65">
+        <v>2028</v>
+      </c>
+      <c r="D65">
+        <v>4492608699</v>
+      </c>
+      <c r="E65" t="s">
+        <v>190</v>
+      </c>
+      <c r="F65" t="s">
+        <v>321</v>
+      </c>
+      <c r="G65" t="s">
+        <v>322</v>
+      </c>
+      <c r="H65" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>324</v>
+      </c>
+      <c r="B66" t="s">
+        <v>219</v>
+      </c>
+      <c r="C66">
+        <v>2029</v>
+      </c>
+      <c r="D66">
+        <v>8001300544</v>
+      </c>
+      <c r="E66" t="s">
+        <v>190</v>
+      </c>
+      <c r="F66" t="s">
+        <v>325</v>
+      </c>
+      <c r="G66" t="s">
+        <v>326</v>
+      </c>
+      <c r="H66" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>328</v>
+      </c>
+      <c r="B67" t="s">
+        <v>329</v>
+      </c>
+      <c r="C67">
+        <v>2030</v>
+      </c>
+      <c r="D67">
+        <v>419908617</v>
+      </c>
+      <c r="E67" t="s">
+        <v>190</v>
+      </c>
+      <c r="F67" t="s">
+        <v>330</v>
+      </c>
+      <c r="G67" t="s">
+        <v>331</v>
+      </c>
+      <c r="H67" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>333</v>
+      </c>
+      <c r="B68" t="s">
+        <v>334</v>
+      </c>
+      <c r="C68">
+        <v>2031</v>
+      </c>
+      <c r="D68">
+        <v>4473431479</v>
+      </c>
+      <c r="E68" t="s">
+        <v>190</v>
+      </c>
+      <c r="F68" t="s">
+        <v>335</v>
+      </c>
+      <c r="G68" t="s">
+        <v>336</v>
+      </c>
+      <c r="H68" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>338</v>
+      </c>
+      <c r="B69" t="s">
+        <v>339</v>
+      </c>
+      <c r="C69">
+        <v>2032</v>
+      </c>
+      <c r="D69">
+        <v>8342942856</v>
+      </c>
+      <c r="E69" t="s">
+        <v>190</v>
+      </c>
+      <c r="F69" t="s">
+        <v>340</v>
+      </c>
+      <c r="G69" t="s">
+        <v>341</v>
+      </c>
+      <c r="H69" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>343</v>
+      </c>
+      <c r="B70" t="s">
+        <v>344</v>
+      </c>
+      <c r="C70">
+        <v>2033</v>
+      </c>
+      <c r="D70">
+        <v>4753528618</v>
+      </c>
+      <c r="E70" t="s">
+        <v>190</v>
+      </c>
+      <c r="F70" t="s">
+        <v>345</v>
+      </c>
+      <c r="G70" t="s">
+        <v>346</v>
+      </c>
+      <c r="H70" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>348</v>
+      </c>
+      <c r="B71" t="s">
+        <v>349</v>
+      </c>
+      <c r="C71">
+        <v>2034</v>
+      </c>
+      <c r="D71">
+        <v>4326730692</v>
+      </c>
+      <c r="E71" t="s">
+        <v>190</v>
+      </c>
+      <c r="F71" t="s">
+        <v>350</v>
+      </c>
+      <c r="G71" t="s">
+        <v>351</v>
+      </c>
+      <c r="H71" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>353</v>
+      </c>
+      <c r="B72" t="s">
+        <v>239</v>
+      </c>
+      <c r="C72">
+        <v>2035</v>
+      </c>
+      <c r="D72">
+        <v>1158367597</v>
+      </c>
+      <c r="E72" t="s">
+        <v>190</v>
+      </c>
+      <c r="F72" t="s">
+        <v>354</v>
+      </c>
+      <c r="G72" t="s">
+        <v>355</v>
+      </c>
+      <c r="H72" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>357</v>
+      </c>
+      <c r="B73" t="s">
+        <v>358</v>
+      </c>
+      <c r="C73">
+        <v>2036</v>
+      </c>
+      <c r="D73">
+        <v>1426485050</v>
+      </c>
+      <c r="E73" t="s">
+        <v>190</v>
+      </c>
+      <c r="F73" t="s">
+        <v>359</v>
+      </c>
+      <c r="G73" t="s">
+        <v>360</v>
+      </c>
+      <c r="H73" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/public/Dataset/Dataset Siswa.xlsx
+++ b/public/Dataset/Dataset Siswa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\File\UNDIP\PKL\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PKL\Excel\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14846FE-1383-45E1-93F5-8C11B6243F2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66EFC03-43A6-4303-AB3B-0080300E7B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{FFCF664F-A068-4F0F-89DF-6A3ADE0F1548}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{FFCF664F-A068-4F0F-89DF-6A3ADE0F1548}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="367">
   <si>
     <t>Nama Lengkap</t>
   </si>
@@ -598,13 +592,547 @@
   </si>
   <si>
     <t>41-536-0943</t>
+  </si>
+  <si>
+    <t>Kiah Moller</t>
+  </si>
+  <si>
+    <t>Donnell Jutson</t>
+  </si>
+  <si>
+    <t>Benny Tinghill</t>
+  </si>
+  <si>
+    <t>Starr Sperring</t>
+  </si>
+  <si>
+    <t>Viole Dilrew</t>
+  </si>
+  <si>
+    <t>Giavani Blaes</t>
+  </si>
+  <si>
+    <t>Thia Garwood</t>
+  </si>
+  <si>
+    <t>Peria Kondratyuk</t>
+  </si>
+  <si>
+    <t>Eb Jedrychowski</t>
+  </si>
+  <si>
+    <t>Clim Alastair</t>
+  </si>
+  <si>
+    <t>Sibel Ellyatt</t>
+  </si>
+  <si>
+    <t>Hanna Lumsdaine</t>
+  </si>
+  <si>
+    <t>Renie Crankshaw</t>
+  </si>
+  <si>
+    <t>Zenia Semorad</t>
+  </si>
+  <si>
+    <t>Ginelle Scones</t>
+  </si>
+  <si>
+    <t>Charmane Scurlock</t>
+  </si>
+  <si>
+    <t>Gherardo Malpass</t>
+  </si>
+  <si>
+    <t>Harlene Paulton</t>
+  </si>
+  <si>
+    <t>Pedro Holligan</t>
+  </si>
+  <si>
+    <t>Kirk Fahey</t>
+  </si>
+  <si>
+    <t>Velma Polon</t>
+  </si>
+  <si>
+    <t>Xerxes Ellsom</t>
+  </si>
+  <si>
+    <t>Arvie Ratie</t>
+  </si>
+  <si>
+    <t>Julie Bleyman</t>
+  </si>
+  <si>
+    <t>Nicoline Pagnin</t>
+  </si>
+  <si>
+    <t>Hardy MacIan</t>
+  </si>
+  <si>
+    <t>Nels Bazoge</t>
+  </si>
+  <si>
+    <t>Julienne Brackpool</t>
+  </si>
+  <si>
+    <t>Tuckie Heigl</t>
+  </si>
+  <si>
+    <t>Janet Keijser</t>
+  </si>
+  <si>
+    <t>Patrick Sadgrove</t>
+  </si>
+  <si>
+    <t>Malia Punch</t>
+  </si>
+  <si>
+    <t>Peggie Pont</t>
+  </si>
+  <si>
+    <t>Alexandrina Tarburn</t>
+  </si>
+  <si>
+    <t>Nichole Karys</t>
+  </si>
+  <si>
+    <t>Atalanta Hanscome</t>
+  </si>
+  <si>
+    <t>20/01/2001</t>
+  </si>
+  <si>
+    <t>18/04/2001</t>
+  </si>
+  <si>
+    <t>25/02/2001</t>
+  </si>
+  <si>
+    <t>05/10/2000</t>
+  </si>
+  <si>
+    <t>06/02/2001</t>
+  </si>
+  <si>
+    <t>05/09/2000</t>
+  </si>
+  <si>
+    <t>18/10/2000</t>
+  </si>
+  <si>
+    <t>15/03/2001</t>
+  </si>
+  <si>
+    <t>08/06/2001</t>
+  </si>
+  <si>
+    <t>29/08/2000</t>
+  </si>
+  <si>
+    <t>13/04/2001</t>
+  </si>
+  <si>
+    <t>30/11/2000</t>
+  </si>
+  <si>
+    <t>02/02/2001</t>
+  </si>
+  <si>
+    <t>12/10/2000</t>
+  </si>
+  <si>
+    <t>19/09/2000</t>
+  </si>
+  <si>
+    <t>02/11/2000</t>
+  </si>
+  <si>
+    <t>21/04/2001</t>
+  </si>
+  <si>
+    <t>15/06/2000</t>
+  </si>
+  <si>
+    <t>15/09/2000</t>
+  </si>
+  <si>
+    <t>27/01/2001</t>
+  </si>
+  <si>
+    <t>19/06/2000</t>
+  </si>
+  <si>
+    <t>17/06/2000</t>
+  </si>
+  <si>
+    <t>08/03/2001</t>
+  </si>
+  <si>
+    <t>07/04/2001</t>
+  </si>
+  <si>
+    <t>09/02/2001</t>
+  </si>
+  <si>
+    <t>09/01/2001</t>
+  </si>
+  <si>
+    <t>12/04/2001</t>
+  </si>
+  <si>
+    <t>08/05/2001</t>
+  </si>
+  <si>
+    <t>25/03/2001</t>
+  </si>
+  <si>
+    <t>19/04/2001</t>
+  </si>
+  <si>
+    <t>27/08/2000</t>
+  </si>
+  <si>
+    <t>05/12/2000</t>
+  </si>
+  <si>
+    <t>23/04/2001</t>
+  </si>
+  <si>
+    <t>22/11/2000</t>
+  </si>
+  <si>
+    <t>IPS 1</t>
+  </si>
+  <si>
+    <t>3.76.33.182</t>
+  </si>
+  <si>
+    <t>81.49.252.85</t>
+  </si>
+  <si>
+    <t>186.40.46.167</t>
+  </si>
+  <si>
+    <t>212.94.230.55</t>
+  </si>
+  <si>
+    <t>43.163.187.80</t>
+  </si>
+  <si>
+    <t>91.237.170.156</t>
+  </si>
+  <si>
+    <t>5.180.226.53</t>
+  </si>
+  <si>
+    <t>2.142.18.26</t>
+  </si>
+  <si>
+    <t>30.152.203.143</t>
+  </si>
+  <si>
+    <t>96.164.172.46</t>
+  </si>
+  <si>
+    <t>139.95.244.251</t>
+  </si>
+  <si>
+    <t>113.149.29.152</t>
+  </si>
+  <si>
+    <t>90.125.39.115</t>
+  </si>
+  <si>
+    <t>228.83.66.175</t>
+  </si>
+  <si>
+    <t>113.14.137.237</t>
+  </si>
+  <si>
+    <t>79.44.210.98</t>
+  </si>
+  <si>
+    <t>101.111.191.195</t>
+  </si>
+  <si>
+    <t>13.38.30.194</t>
+  </si>
+  <si>
+    <t>128.247.157.81</t>
+  </si>
+  <si>
+    <t>215.195.156.255</t>
+  </si>
+  <si>
+    <t>221.237.113.77</t>
+  </si>
+  <si>
+    <t>206.163.61.103</t>
+  </si>
+  <si>
+    <t>71.174.202.231</t>
+  </si>
+  <si>
+    <t>101.162.8.185</t>
+  </si>
+  <si>
+    <t>254.79.131.184</t>
+  </si>
+  <si>
+    <t>205.45.146.235</t>
+  </si>
+  <si>
+    <t>100.48.237.12</t>
+  </si>
+  <si>
+    <t>166.42.63.123</t>
+  </si>
+  <si>
+    <t>236.106.92.36</t>
+  </si>
+  <si>
+    <t>244.21.126.191</t>
+  </si>
+  <si>
+    <t>47.0.218.222</t>
+  </si>
+  <si>
+    <t>27.222.29.5</t>
+  </si>
+  <si>
+    <t>111.51.12.156</t>
+  </si>
+  <si>
+    <t>89.128.181.59</t>
+  </si>
+  <si>
+    <t>220.59.239.41</t>
+  </si>
+  <si>
+    <t>Moller</t>
+  </si>
+  <si>
+    <t>Jutson</t>
+  </si>
+  <si>
+    <t>Tinghill</t>
+  </si>
+  <si>
+    <t>Sperring</t>
+  </si>
+  <si>
+    <t>Dilrew</t>
+  </si>
+  <si>
+    <t>Blaes</t>
+  </si>
+  <si>
+    <t>Garwood</t>
+  </si>
+  <si>
+    <t>Kondratyuk</t>
+  </si>
+  <si>
+    <t>Jedrychowski</t>
+  </si>
+  <si>
+    <t>Alastair</t>
+  </si>
+  <si>
+    <t>Ellyatt</t>
+  </si>
+  <si>
+    <t>Lumsdaine</t>
+  </si>
+  <si>
+    <t>Crankshaw</t>
+  </si>
+  <si>
+    <t>Semorad</t>
+  </si>
+  <si>
+    <t>Scones</t>
+  </si>
+  <si>
+    <t>Scurlock</t>
+  </si>
+  <si>
+    <t>Malpass</t>
+  </si>
+  <si>
+    <t>Paulton</t>
+  </si>
+  <si>
+    <t>Holligan</t>
+  </si>
+  <si>
+    <t>Fahey</t>
+  </si>
+  <si>
+    <t>Polon</t>
+  </si>
+  <si>
+    <t>Ellsom</t>
+  </si>
+  <si>
+    <t>Ratie</t>
+  </si>
+  <si>
+    <t>Bleyman</t>
+  </si>
+  <si>
+    <t>Pagnin</t>
+  </si>
+  <si>
+    <t>MacIan</t>
+  </si>
+  <si>
+    <t>Bazoge</t>
+  </si>
+  <si>
+    <t>Brackpool</t>
+  </si>
+  <si>
+    <t>Heigl</t>
+  </si>
+  <si>
+    <t>Keijser</t>
+  </si>
+  <si>
+    <t>Sadgrove</t>
+  </si>
+  <si>
+    <t>Punch</t>
+  </si>
+  <si>
+    <t>Pont</t>
+  </si>
+  <si>
+    <t>Tarburn</t>
+  </si>
+  <si>
+    <t>Karys</t>
+  </si>
+  <si>
+    <t>Hanscome</t>
+  </si>
+  <si>
+    <t>77-222-7971</t>
+  </si>
+  <si>
+    <t>85-447-4550</t>
+  </si>
+  <si>
+    <t>42-993-3763</t>
+  </si>
+  <si>
+    <t>47-932-3074</t>
+  </si>
+  <si>
+    <t>63-535-1496</t>
+  </si>
+  <si>
+    <t>36-519-3603</t>
+  </si>
+  <si>
+    <t>61-910-1096</t>
+  </si>
+  <si>
+    <t>24-685-3136</t>
+  </si>
+  <si>
+    <t>76-592-6683</t>
+  </si>
+  <si>
+    <t>34-886-0378</t>
+  </si>
+  <si>
+    <t>89-369-9341</t>
+  </si>
+  <si>
+    <t>69-442-3412</t>
+  </si>
+  <si>
+    <t>80-636-9612</t>
+  </si>
+  <si>
+    <t>65-293-5926</t>
+  </si>
+  <si>
+    <t>68-635-0943</t>
+  </si>
+  <si>
+    <t>17-851-8766</t>
+  </si>
+  <si>
+    <t>23-026-2027</t>
+  </si>
+  <si>
+    <t>47-104-8989</t>
+  </si>
+  <si>
+    <t>69-527-2601</t>
+  </si>
+  <si>
+    <t>57-710-4255</t>
+  </si>
+  <si>
+    <t>62-520-6566</t>
+  </si>
+  <si>
+    <t>36-726-2960</t>
+  </si>
+  <si>
+    <t>55-989-1940</t>
+  </si>
+  <si>
+    <t>63-857-6638</t>
+  </si>
+  <si>
+    <t>76-616-6948</t>
+  </si>
+  <si>
+    <t>80-758-7826</t>
+  </si>
+  <si>
+    <t>23-752-0444</t>
+  </si>
+  <si>
+    <t>56-424-3496</t>
+  </si>
+  <si>
+    <t>59-320-7167</t>
+  </si>
+  <si>
+    <t>18-063-0307</t>
+  </si>
+  <si>
+    <t>19-367-0640</t>
+  </si>
+  <si>
+    <t>29-530-3482</t>
+  </si>
+  <si>
+    <t>64-058-6186</t>
+  </si>
+  <si>
+    <t>18-605-6419</t>
+  </si>
+  <si>
+    <t>17-166-1453</t>
+  </si>
+  <si>
+    <t>36-571-6704</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,6 +1151,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -654,7 +1188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -662,6 +1196,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -976,25 +1514,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331F74CD-F624-4F21-B039-F07878B322BD}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="I71" sqref="I71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1023,7 +1561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -1052,7 +1590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
@@ -1071,7 +1609,7 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H3" t="s">
@@ -1081,7 +1619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
@@ -1110,7 +1648,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>104</v>
       </c>
@@ -1139,7 +1677,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>105</v>
       </c>
@@ -1168,7 +1706,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>106</v>
       </c>
@@ -1197,7 +1735,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>107</v>
       </c>
@@ -1226,7 +1764,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>108</v>
       </c>
@@ -1255,7 +1793,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>109</v>
       </c>
@@ -1284,7 +1822,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>110</v>
       </c>
@@ -1313,7 +1851,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>111</v>
       </c>
@@ -1342,7 +1880,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>112</v>
       </c>
@@ -1371,7 +1909,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>113</v>
       </c>
@@ -1400,7 +1938,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>114</v>
       </c>
@@ -1429,7 +1967,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>115</v>
       </c>
@@ -1458,7 +1996,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>116</v>
       </c>
@@ -1487,7 +2025,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>117</v>
       </c>
@@ -1516,7 +2054,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>118</v>
       </c>
@@ -1545,7 +2083,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>119</v>
       </c>
@@ -1574,7 +2112,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>120</v>
       </c>
@@ -1603,7 +2141,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>121</v>
       </c>
@@ -1632,7 +2170,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>122</v>
       </c>
@@ -1661,7 +2199,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>123</v>
       </c>
@@ -1690,7 +2228,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>124</v>
       </c>
@@ -1719,7 +2257,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>125</v>
       </c>
@@ -1748,7 +2286,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>126</v>
       </c>
@@ -1777,7 +2315,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>127</v>
       </c>
@@ -1806,7 +2344,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>128</v>
       </c>
@@ -1835,7 +2373,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>129</v>
       </c>
@@ -1864,7 +2402,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>130</v>
       </c>
@@ -1893,7 +2431,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>131</v>
       </c>
@@ -1922,7 +2460,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>132</v>
       </c>
@@ -1951,7 +2489,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>133</v>
       </c>
@@ -1980,7 +2518,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>134</v>
       </c>
@@ -2009,7 +2547,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>135</v>
       </c>
@@ -2038,7 +2576,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>136</v>
       </c>
@@ -2067,7 +2605,1052 @@
         <v>188</v>
       </c>
     </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>201</v>
+      </c>
+      <c r="B38" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" t="s">
+        <v>225</v>
+      </c>
+      <c r="D38">
+        <v>2001</v>
+      </c>
+      <c r="E38">
+        <v>735583122</v>
+      </c>
+      <c r="F38" t="s">
+        <v>259</v>
+      </c>
+      <c r="G38" t="s">
+        <v>260</v>
+      </c>
+      <c r="H38" t="s">
+        <v>295</v>
+      </c>
+      <c r="I38" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>202</v>
+      </c>
+      <c r="B39" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" t="s">
+        <v>226</v>
+      </c>
+      <c r="D39">
+        <v>2002</v>
+      </c>
+      <c r="E39">
+        <v>624974547</v>
+      </c>
+      <c r="F39" t="s">
+        <v>259</v>
+      </c>
+      <c r="G39" t="s">
+        <v>261</v>
+      </c>
+      <c r="H39" t="s">
+        <v>296</v>
+      </c>
+      <c r="I39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>203</v>
+      </c>
+      <c r="B40" t="s">
+        <v>191</v>
+      </c>
+      <c r="C40" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40">
+        <v>2003</v>
+      </c>
+      <c r="E40">
+        <v>699736179</v>
+      </c>
+      <c r="F40" t="s">
+        <v>259</v>
+      </c>
+      <c r="G40" t="s">
+        <v>262</v>
+      </c>
+      <c r="H40" t="s">
+        <v>297</v>
+      </c>
+      <c r="I40" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>204</v>
+      </c>
+      <c r="B41" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" t="s">
+        <v>228</v>
+      </c>
+      <c r="D41">
+        <v>2004</v>
+      </c>
+      <c r="E41">
+        <v>717795298</v>
+      </c>
+      <c r="F41" t="s">
+        <v>259</v>
+      </c>
+      <c r="G41" t="s">
+        <v>263</v>
+      </c>
+      <c r="H41" t="s">
+        <v>298</v>
+      </c>
+      <c r="I41" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>205</v>
+      </c>
+      <c r="B42" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" t="s">
+        <v>229</v>
+      </c>
+      <c r="D42">
+        <v>2005</v>
+      </c>
+      <c r="E42">
+        <v>723981295</v>
+      </c>
+      <c r="F42" t="s">
+        <v>259</v>
+      </c>
+      <c r="G42" t="s">
+        <v>264</v>
+      </c>
+      <c r="H42" t="s">
+        <v>299</v>
+      </c>
+      <c r="I42" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>206</v>
+      </c>
+      <c r="B43" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" t="s">
+        <v>230</v>
+      </c>
+      <c r="D43">
+        <v>2006</v>
+      </c>
+      <c r="E43">
+        <v>256327759</v>
+      </c>
+      <c r="F43" t="s">
+        <v>259</v>
+      </c>
+      <c r="G43" t="s">
+        <v>265</v>
+      </c>
+      <c r="H43" t="s">
+        <v>300</v>
+      </c>
+      <c r="I43" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>207</v>
+      </c>
+      <c r="B44" t="s">
+        <v>195</v>
+      </c>
+      <c r="C44" t="s">
+        <v>231</v>
+      </c>
+      <c r="D44">
+        <v>2007</v>
+      </c>
+      <c r="E44">
+        <v>300761654</v>
+      </c>
+      <c r="F44" t="s">
+        <v>259</v>
+      </c>
+      <c r="G44" t="s">
+        <v>266</v>
+      </c>
+      <c r="H44" t="s">
+        <v>301</v>
+      </c>
+      <c r="I44" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>208</v>
+      </c>
+      <c r="B45" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" t="s">
+        <v>232</v>
+      </c>
+      <c r="D45">
+        <v>2008</v>
+      </c>
+      <c r="E45">
+        <v>814086175</v>
+      </c>
+      <c r="F45" t="s">
+        <v>259</v>
+      </c>
+      <c r="G45" t="s">
+        <v>267</v>
+      </c>
+      <c r="H45" t="s">
+        <v>302</v>
+      </c>
+      <c r="I45" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>209</v>
+      </c>
+      <c r="B46" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46" t="s">
+        <v>233</v>
+      </c>
+      <c r="D46">
+        <v>2009</v>
+      </c>
+      <c r="E46">
+        <v>665106382</v>
+      </c>
+      <c r="F46" t="s">
+        <v>259</v>
+      </c>
+      <c r="G46" t="s">
+        <v>268</v>
+      </c>
+      <c r="H46" t="s">
+        <v>303</v>
+      </c>
+      <c r="I46" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>210</v>
+      </c>
+      <c r="B47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C47" t="s">
+        <v>234</v>
+      </c>
+      <c r="D47">
+        <v>2010</v>
+      </c>
+      <c r="E47">
+        <v>128648823</v>
+      </c>
+      <c r="F47" t="s">
+        <v>259</v>
+      </c>
+      <c r="G47" t="s">
+        <v>269</v>
+      </c>
+      <c r="H47" t="s">
+        <v>304</v>
+      </c>
+      <c r="I47" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>211</v>
+      </c>
+      <c r="B48" t="s">
+        <v>199</v>
+      </c>
+      <c r="C48" t="s">
+        <v>235</v>
+      </c>
+      <c r="D48">
+        <v>2011</v>
+      </c>
+      <c r="E48">
+        <v>778719537</v>
+      </c>
+      <c r="F48" t="s">
+        <v>259</v>
+      </c>
+      <c r="G48" t="s">
+        <v>270</v>
+      </c>
+      <c r="H48" t="s">
+        <v>305</v>
+      </c>
+      <c r="I48" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>212</v>
+      </c>
+      <c r="B49" t="s">
+        <v>200</v>
+      </c>
+      <c r="C49" t="s">
+        <v>236</v>
+      </c>
+      <c r="D49">
+        <v>2012</v>
+      </c>
+      <c r="E49">
+        <v>479814894</v>
+      </c>
+      <c r="F49" t="s">
+        <v>259</v>
+      </c>
+      <c r="G49" t="s">
+        <v>271</v>
+      </c>
+      <c r="H49" t="s">
+        <v>306</v>
+      </c>
+      <c r="I49" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>213</v>
+      </c>
+      <c r="B50" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" t="s">
+        <v>237</v>
+      </c>
+      <c r="D50">
+        <v>2013</v>
+      </c>
+      <c r="E50">
+        <v>192327151</v>
+      </c>
+      <c r="F50" t="s">
+        <v>259</v>
+      </c>
+      <c r="G50" t="s">
+        <v>272</v>
+      </c>
+      <c r="H50" t="s">
+        <v>307</v>
+      </c>
+      <c r="I50" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>214</v>
+      </c>
+      <c r="B51" t="s">
+        <v>202</v>
+      </c>
+      <c r="C51" t="s">
+        <v>238</v>
+      </c>
+      <c r="D51">
+        <v>2014</v>
+      </c>
+      <c r="E51">
+        <v>194751809</v>
+      </c>
+      <c r="F51" t="s">
+        <v>259</v>
+      </c>
+      <c r="G51" t="s">
+        <v>273</v>
+      </c>
+      <c r="H51" t="s">
+        <v>308</v>
+      </c>
+      <c r="I51" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>215</v>
+      </c>
+      <c r="B52" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" t="s">
+        <v>239</v>
+      </c>
+      <c r="D52">
+        <v>2015</v>
+      </c>
+      <c r="E52">
+        <v>684058753</v>
+      </c>
+      <c r="F52" t="s">
+        <v>259</v>
+      </c>
+      <c r="G52" t="s">
+        <v>274</v>
+      </c>
+      <c r="H52" t="s">
+        <v>309</v>
+      </c>
+      <c r="I52" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>216</v>
+      </c>
+      <c r="B53" t="s">
+        <v>204</v>
+      </c>
+      <c r="C53" t="s">
+        <v>240</v>
+      </c>
+      <c r="D53">
+        <v>2016</v>
+      </c>
+      <c r="E53">
+        <v>224489585</v>
+      </c>
+      <c r="F53" t="s">
+        <v>259</v>
+      </c>
+      <c r="G53" t="s">
+        <v>275</v>
+      </c>
+      <c r="H53" t="s">
+        <v>310</v>
+      </c>
+      <c r="I53" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>217</v>
+      </c>
+      <c r="B54" t="s">
+        <v>205</v>
+      </c>
+      <c r="C54" t="s">
+        <v>241</v>
+      </c>
+      <c r="D54">
+        <v>2017</v>
+      </c>
+      <c r="E54">
+        <v>882162277</v>
+      </c>
+      <c r="F54" t="s">
+        <v>259</v>
+      </c>
+      <c r="G54" t="s">
+        <v>276</v>
+      </c>
+      <c r="H54" t="s">
+        <v>311</v>
+      </c>
+      <c r="I54" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>218</v>
+      </c>
+      <c r="B55" t="s">
+        <v>206</v>
+      </c>
+      <c r="C55" t="s">
+        <v>242</v>
+      </c>
+      <c r="D55">
+        <v>2018</v>
+      </c>
+      <c r="E55">
+        <v>125577985</v>
+      </c>
+      <c r="F55" t="s">
+        <v>259</v>
+      </c>
+      <c r="G55" t="s">
+        <v>277</v>
+      </c>
+      <c r="H55" t="s">
+        <v>312</v>
+      </c>
+      <c r="I55" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>219</v>
+      </c>
+      <c r="B56" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" t="s">
+        <v>243</v>
+      </c>
+      <c r="D56">
+        <v>2019</v>
+      </c>
+      <c r="E56">
+        <v>498736770</v>
+      </c>
+      <c r="F56" t="s">
+        <v>259</v>
+      </c>
+      <c r="G56" t="s">
+        <v>278</v>
+      </c>
+      <c r="H56" t="s">
+        <v>313</v>
+      </c>
+      <c r="I56" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>220</v>
+      </c>
+      <c r="B57" t="s">
+        <v>208</v>
+      </c>
+      <c r="C57" t="s">
+        <v>244</v>
+      </c>
+      <c r="D57">
+        <v>2020</v>
+      </c>
+      <c r="E57">
+        <v>147910602</v>
+      </c>
+      <c r="F57" t="s">
+        <v>259</v>
+      </c>
+      <c r="G57" t="s">
+        <v>279</v>
+      </c>
+      <c r="H57" t="s">
+        <v>314</v>
+      </c>
+      <c r="I57" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>221</v>
+      </c>
+      <c r="B58" t="s">
+        <v>209</v>
+      </c>
+      <c r="C58" t="s">
+        <v>245</v>
+      </c>
+      <c r="D58">
+        <v>2021</v>
+      </c>
+      <c r="E58">
+        <v>754779310</v>
+      </c>
+      <c r="F58" t="s">
+        <v>259</v>
+      </c>
+      <c r="G58" t="s">
+        <v>280</v>
+      </c>
+      <c r="H58" t="s">
+        <v>315</v>
+      </c>
+      <c r="I58" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>222</v>
+      </c>
+      <c r="B59" t="s">
+        <v>210</v>
+      </c>
+      <c r="C59" t="s">
+        <v>246</v>
+      </c>
+      <c r="D59">
+        <v>2022</v>
+      </c>
+      <c r="E59">
+        <v>152005113</v>
+      </c>
+      <c r="F59" t="s">
+        <v>259</v>
+      </c>
+      <c r="G59" t="s">
+        <v>281</v>
+      </c>
+      <c r="H59" t="s">
+        <v>316</v>
+      </c>
+      <c r="I59" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>223</v>
+      </c>
+      <c r="B60" t="s">
+        <v>211</v>
+      </c>
+      <c r="C60" t="s">
+        <v>247</v>
+      </c>
+      <c r="D60">
+        <v>2023</v>
+      </c>
+      <c r="E60">
+        <v>457087839</v>
+      </c>
+      <c r="F60" t="s">
+        <v>259</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="H60" t="s">
+        <v>317</v>
+      </c>
+      <c r="I60" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>224</v>
+      </c>
+      <c r="B61" t="s">
+        <v>212</v>
+      </c>
+      <c r="C61" t="s">
+        <v>248</v>
+      </c>
+      <c r="D61">
+        <v>2024</v>
+      </c>
+      <c r="E61">
+        <v>876099410</v>
+      </c>
+      <c r="F61" t="s">
+        <v>259</v>
+      </c>
+      <c r="G61" t="s">
+        <v>283</v>
+      </c>
+      <c r="H61" t="s">
+        <v>318</v>
+      </c>
+      <c r="I61" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>225</v>
+      </c>
+      <c r="B62" t="s">
+        <v>213</v>
+      </c>
+      <c r="C62" t="s">
+        <v>249</v>
+      </c>
+      <c r="D62">
+        <v>2025</v>
+      </c>
+      <c r="E62">
+        <v>523749835</v>
+      </c>
+      <c r="F62" t="s">
+        <v>259</v>
+      </c>
+      <c r="G62" t="s">
+        <v>284</v>
+      </c>
+      <c r="H62" t="s">
+        <v>319</v>
+      </c>
+      <c r="I62" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>226</v>
+      </c>
+      <c r="B63" t="s">
+        <v>214</v>
+      </c>
+      <c r="C63" t="s">
+        <v>250</v>
+      </c>
+      <c r="D63">
+        <v>2026</v>
+      </c>
+      <c r="E63">
+        <v>366591900</v>
+      </c>
+      <c r="F63" t="s">
+        <v>259</v>
+      </c>
+      <c r="G63" t="s">
+        <v>285</v>
+      </c>
+      <c r="H63" t="s">
+        <v>320</v>
+      </c>
+      <c r="I63" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>227</v>
+      </c>
+      <c r="B64" t="s">
+        <v>215</v>
+      </c>
+      <c r="C64" t="s">
+        <v>251</v>
+      </c>
+      <c r="D64">
+        <v>2027</v>
+      </c>
+      <c r="E64">
+        <v>365002883</v>
+      </c>
+      <c r="F64" t="s">
+        <v>259</v>
+      </c>
+      <c r="G64" t="s">
+        <v>286</v>
+      </c>
+      <c r="H64" t="s">
+        <v>321</v>
+      </c>
+      <c r="I64" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>228</v>
+      </c>
+      <c r="B65" t="s">
+        <v>216</v>
+      </c>
+      <c r="C65" t="s">
+        <v>252</v>
+      </c>
+      <c r="D65">
+        <v>2028</v>
+      </c>
+      <c r="E65">
+        <v>674718349</v>
+      </c>
+      <c r="F65" t="s">
+        <v>259</v>
+      </c>
+      <c r="G65" t="s">
+        <v>287</v>
+      </c>
+      <c r="H65" t="s">
+        <v>322</v>
+      </c>
+      <c r="I65" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>229</v>
+      </c>
+      <c r="B66" t="s">
+        <v>217</v>
+      </c>
+      <c r="C66" t="s">
+        <v>227</v>
+      </c>
+      <c r="D66">
+        <v>2029</v>
+      </c>
+      <c r="E66">
+        <v>824848373</v>
+      </c>
+      <c r="F66" t="s">
+        <v>259</v>
+      </c>
+      <c r="G66" s="3">
+        <v>158183136244</v>
+      </c>
+      <c r="H66" t="s">
+        <v>323</v>
+      </c>
+      <c r="I66" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>230</v>
+      </c>
+      <c r="B67" t="s">
+        <v>218</v>
+      </c>
+      <c r="C67" t="s">
+        <v>253</v>
+      </c>
+      <c r="D67">
+        <v>2030</v>
+      </c>
+      <c r="E67">
+        <v>147804744</v>
+      </c>
+      <c r="F67" t="s">
+        <v>259</v>
+      </c>
+      <c r="G67" t="s">
+        <v>288</v>
+      </c>
+      <c r="H67" t="s">
+        <v>324</v>
+      </c>
+      <c r="I67" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>231</v>
+      </c>
+      <c r="B68" t="s">
+        <v>219</v>
+      </c>
+      <c r="C68" t="s">
+        <v>254</v>
+      </c>
+      <c r="D68">
+        <v>2031</v>
+      </c>
+      <c r="E68">
+        <v>711508269</v>
+      </c>
+      <c r="F68" t="s">
+        <v>259</v>
+      </c>
+      <c r="G68" t="s">
+        <v>289</v>
+      </c>
+      <c r="H68" t="s">
+        <v>325</v>
+      </c>
+      <c r="I68" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>232</v>
+      </c>
+      <c r="B69" t="s">
+        <v>220</v>
+      </c>
+      <c r="C69" t="s">
+        <v>255</v>
+      </c>
+      <c r="D69">
+        <v>2032</v>
+      </c>
+      <c r="E69">
+        <v>254430249</v>
+      </c>
+      <c r="F69" t="s">
+        <v>259</v>
+      </c>
+      <c r="G69" t="s">
+        <v>290</v>
+      </c>
+      <c r="H69" t="s">
+        <v>326</v>
+      </c>
+      <c r="I69" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>233</v>
+      </c>
+      <c r="B70" t="s">
+        <v>221</v>
+      </c>
+      <c r="C70" t="s">
+        <v>238</v>
+      </c>
+      <c r="D70">
+        <v>2033</v>
+      </c>
+      <c r="E70">
+        <v>591624028</v>
+      </c>
+      <c r="F70" t="s">
+        <v>259</v>
+      </c>
+      <c r="G70" t="s">
+        <v>291</v>
+      </c>
+      <c r="H70" t="s">
+        <v>327</v>
+      </c>
+      <c r="I70" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>234</v>
+      </c>
+      <c r="B71" t="s">
+        <v>222</v>
+      </c>
+      <c r="C71" t="s">
+        <v>256</v>
+      </c>
+      <c r="D71">
+        <v>2034</v>
+      </c>
+      <c r="E71">
+        <v>417775936</v>
+      </c>
+      <c r="F71" t="s">
+        <v>259</v>
+      </c>
+      <c r="G71" t="s">
+        <v>292</v>
+      </c>
+      <c r="H71" t="s">
+        <v>328</v>
+      </c>
+      <c r="I71" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>235</v>
+      </c>
+      <c r="B72" t="s">
+        <v>223</v>
+      </c>
+      <c r="C72" t="s">
+        <v>257</v>
+      </c>
+      <c r="D72">
+        <v>2035</v>
+      </c>
+      <c r="E72">
+        <v>880072849</v>
+      </c>
+      <c r="F72" t="s">
+        <v>259</v>
+      </c>
+      <c r="G72" t="s">
+        <v>293</v>
+      </c>
+      <c r="H72" t="s">
+        <v>329</v>
+      </c>
+      <c r="I72" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>236</v>
+      </c>
+      <c r="B73" t="s">
+        <v>224</v>
+      </c>
+      <c r="C73" t="s">
+        <v>258</v>
+      </c>
+      <c r="D73">
+        <v>2036</v>
+      </c>
+      <c r="E73">
+        <v>893984741</v>
+      </c>
+      <c r="F73" t="s">
+        <v>259</v>
+      </c>
+      <c r="G73" t="s">
+        <v>294</v>
+      </c>
+      <c r="H73" t="s">
+        <v>330</v>
+      </c>
+      <c r="I73" t="s">
+        <v>366</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
